--- a/data/raw/grouping/retractionwatch_mistake_coding.xlsx
+++ b/data/raw/grouping/retractionwatch_mistake_coding.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="72">
   <si>
     <t xml:space="preserve">response_id</t>
   </si>
@@ -121,12 +121,6 @@
     <t xml:space="preserve">Coding error in initial data extraction. I.e. Specifying wrong column of data, typo.</t>
   </si>
   <si>
-    <t xml:space="preserve">R_2YScN2gvzdN4NiI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no idea</t>
-  </si>
-  <si>
     <t xml:space="preserve">R_2vfgZUecZClJr84</t>
   </si>
   <si>
@@ -242,9 +236,6 @@
   </si>
   <si>
     <t xml:space="preserve">The mistake in our paper is not in the paper it is in a copy and paste error in the data file that was uploaded to a public repository. The repository file has  an error that was made when trying to make the date available in a format that would be most useful to the most amount of scientists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not my paper</t>
   </si>
 </sst>
 </file>
@@ -254,7 +245,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -284,12 +275,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -334,7 +319,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -355,10 +340,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,10 +357,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -610,32 +591,32 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>37</v>
@@ -644,10 +625,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -655,47 +636,47 @@
         <v>6</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D15" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="B16" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>43</v>
@@ -704,58 +685,58 @@
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>49</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>50</v>
@@ -766,16 +747,16 @@
       <c r="E19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F19" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>52</v>
@@ -786,16 +767,16 @@
       <c r="E20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>53</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>54</v>
@@ -807,15 +788,15 @@
         <v>54</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>56</v>
@@ -827,15 +808,15 @@
         <v>56</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>58</v>
@@ -850,12 +831,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>59</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>60</v>
@@ -870,52 +851,52 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="26" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F26" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>65</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>66</v>
@@ -926,36 +907,36 @@
       <c r="E27" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F27" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F28" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F28" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>70</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>71</v>
@@ -966,50 +947,12 @@
       <c r="E29" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
+      <c r="F29" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
